--- a/Paper_resultados/Parametric_model/Survival_rate/Output/Total/Sex/Outcome_female.xlsx
+++ b/Paper_resultados/Parametric_model/Survival_rate/Output/Total/Sex/Outcome_female.xlsx
@@ -387,10 +387,10 @@
         <v>0.9304049354535939</v>
       </c>
       <c r="C2">
-        <v>0.9178933096501009</v>
+        <v>0.9170291623044325</v>
       </c>
       <c r="D2">
-        <v>0.9415321831937533</v>
+        <v>0.9416429316346989</v>
       </c>
     </row>
     <row r="3">
@@ -401,10 +401,10 @@
         <v>0.8714584013920813</v>
       </c>
       <c r="C3">
-        <v>0.8500186142005905</v>
+        <v>0.8484261885130215</v>
       </c>
       <c r="D3">
-        <v>0.8908784723114919</v>
+        <v>0.8912106471290957</v>
       </c>
     </row>
     <row r="4">
@@ -415,10 +415,10 @@
         <v>0.8212115066999597</v>
       </c>
       <c r="C4">
-        <v>0.7932746031772409</v>
+        <v>0.7911289445959027</v>
       </c>
       <c r="D4">
-        <v>0.8463946375295163</v>
+        <v>0.8476216671120647</v>
       </c>
     </row>
     <row r="5">
@@ -429,10 +429,10 @@
         <v>0.7781316451997938</v>
       </c>
       <c r="C5">
-        <v>0.7457375185691228</v>
+        <v>0.7429989570171585</v>
       </c>
       <c r="D5">
-        <v>0.8074903754373215</v>
+        <v>0.8097123667562878</v>
       </c>
     </row>
     <row r="6">
@@ -443,10 +443,10 @@
         <v>0.7410020390140156</v>
       </c>
       <c r="C6">
-        <v>0.7044231080789968</v>
+        <v>0.702138676865307</v>
       </c>
       <c r="D6">
-        <v>0.7742989220216593</v>
+        <v>0.7765327088450696</v>
       </c>
     </row>
     <row r="7">
@@ -457,10 +457,10 @@
         <v>0.7088479764196853</v>
       </c>
       <c r="C7">
-        <v>0.6695470249036704</v>
+        <v>0.6668797697886445</v>
       </c>
       <c r="D7">
-        <v>0.7450774345672797</v>
+        <v>0.7470442273258214</v>
       </c>
     </row>
     <row r="8">
@@ -471,10 +471,10 @@
         <v>0.6808820669784588</v>
       </c>
       <c r="C8">
-        <v>0.6392116441912592</v>
+        <v>0.6369154434875203</v>
       </c>
       <c r="D8">
-        <v>0.7198057760751546</v>
+        <v>0.720767687345103</v>
       </c>
     </row>
     <row r="9">
@@ -485,10 +485,10 @@
         <v>0.6564631978732794</v>
       </c>
       <c r="C9">
-        <v>0.6131707488419934</v>
+        <v>0.6112691090540544</v>
       </c>
       <c r="D9">
-        <v>0.6967665632221179</v>
+        <v>0.6974311988184334</v>
       </c>
     </row>
     <row r="10">
@@ -499,10 +499,10 @@
         <v>0.6350654668896174</v>
       </c>
       <c r="C10">
-        <v>0.5906835317806038</v>
+        <v>0.5890682688138595</v>
       </c>
       <c r="D10">
-        <v>0.6764074372281595</v>
+        <v>0.6776920056548507</v>
       </c>
     </row>
     <row r="11">
@@ -513,10 +513,10 @@
         <v>0.6162544533605103</v>
       </c>
       <c r="C11">
-        <v>0.570628807470796</v>
+        <v>0.5693487441109321</v>
       </c>
       <c r="D11">
-        <v>0.6588093871146333</v>
+        <v>0.6602303130431306</v>
       </c>
     </row>
     <row r="12">
@@ -527,10 +527,10 @@
         <v>0.5996689378975083</v>
       </c>
       <c r="C12">
-        <v>0.5532952878230351</v>
+        <v>0.5517831478055472</v>
       </c>
       <c r="D12">
-        <v>0.6433064225603591</v>
+        <v>0.6439505993913955</v>
       </c>
     </row>
     <row r="13">
@@ -541,10 +541,10 @@
         <v>0.585006704760298</v>
       </c>
       <c r="C13">
-        <v>0.5382707450284688</v>
+        <v>0.5362537887404351</v>
       </c>
       <c r="D13">
-        <v>0.6290153497013842</v>
+        <v>0.6296360109948211</v>
       </c>
     </row>
     <row r="14">
@@ -555,10 +555,10 @@
         <v>0.5720134295314511</v>
       </c>
       <c r="C14">
-        <v>0.5250681642607589</v>
+        <v>0.5225059381354843</v>
       </c>
       <c r="D14">
-        <v>0.6164609604756479</v>
+        <v>0.6170961508821817</v>
       </c>
     </row>
     <row r="15">
@@ -569,10 +569,10 @@
         <v>0.5604739174210944</v>
       </c>
       <c r="C15">
-        <v>0.5135010501546452</v>
+        <v>0.5102461613608638</v>
       </c>
       <c r="D15">
-        <v>0.6051108844160454</v>
+        <v>0.6055784430817203</v>
       </c>
     </row>
     <row r="16">
@@ -583,10 +583,10 @@
         <v>0.5502051463567994</v>
       </c>
       <c r="C16">
-        <v>0.502525691967335</v>
+        <v>0.4998193176503996</v>
       </c>
       <c r="D16">
-        <v>0.5949176022927559</v>
+        <v>0.5952556561342357</v>
       </c>
     </row>
     <row r="17">
@@ -597,10 +597,10 @@
         <v>0.5410507059933116</v>
       </c>
       <c r="C17">
-        <v>0.4932245797367174</v>
+        <v>0.4901817193478339</v>
       </c>
       <c r="D17">
-        <v>0.5851611463046468</v>
+        <v>0.5857725507238485</v>
       </c>
     </row>
     <row r="18">
@@ -611,10 +611,10 @@
         <v>0.5328763239972441</v>
       </c>
       <c r="C18">
-        <v>0.4852136393354584</v>
+        <v>0.4822907789146031</v>
       </c>
       <c r="D18">
-        <v>0.5760428679555464</v>
+        <v>0.5776090876804424</v>
       </c>
     </row>
     <row r="19">
@@ -625,10 +625,10 @@
         <v>0.5255662448891085</v>
       </c>
       <c r="C19">
-        <v>0.4777546402832144</v>
+        <v>0.474630959531397</v>
       </c>
       <c r="D19">
-        <v>0.568804428087814</v>
+        <v>0.5700648111644333</v>
       </c>
     </row>
     <row r="20">
@@ -639,10 +639,10 @@
         <v>0.5190202816836965</v>
       </c>
       <c r="C20">
-        <v>0.4711021493092868</v>
+        <v>0.4685077653780572</v>
       </c>
       <c r="D20">
-        <v>0.5629770589368622</v>
+        <v>0.5632518243206505</v>
       </c>
     </row>
     <row r="21">
@@ -653,10 +653,10 @@
         <v>0.5131514017319171</v>
       </c>
       <c r="C21">
-        <v>0.4651203419402418</v>
+        <v>0.4627755445589086</v>
       </c>
       <c r="D21">
-        <v>0.5567570410529674</v>
+        <v>0.5572483003596687</v>
       </c>
     </row>
     <row r="22">
@@ -667,10 +667,10 @@
         <v>0.5078837392158887</v>
       </c>
       <c r="C22">
-        <v>0.4592041326124069</v>
+        <v>0.4578504594884943</v>
       </c>
       <c r="D22">
-        <v>0.5519860626320332</v>
+        <v>0.5516873748309649</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>0.5031509503286841</v>
       </c>
       <c r="C23">
-        <v>0.4536953017941643</v>
+        <v>0.4533645636361425</v>
       </c>
       <c r="D23">
-        <v>0.5470239050573913</v>
+        <v>0.5467834880525162</v>
       </c>
     </row>
     <row r="24">
@@ -695,10 +695,10 @@
         <v>0.4988948451939045</v>
       </c>
       <c r="C24">
-        <v>0.449255175029137</v>
+        <v>0.449385863586327</v>
       </c>
       <c r="D24">
-        <v>0.542439503103248</v>
+        <v>0.5431425355425593</v>
       </c>
     </row>
     <row r="25">
@@ -709,10 +709,10 @@
         <v>0.4950642444430047</v>
       </c>
       <c r="C25">
-        <v>0.4457188837081369</v>
+        <v>0.4455361928658126</v>
       </c>
       <c r="D25">
-        <v>0.5382629449946894</v>
+        <v>0.5392074880422915</v>
       </c>
     </row>
     <row r="26">
@@ -723,10 +723,10 @@
         <v>0.4885042807217548</v>
       </c>
       <c r="C26">
-        <v>0.438119655575994</v>
+        <v>0.4387220851264734</v>
       </c>
       <c r="D26">
-        <v>0.5317015422791953</v>
+        <v>0.5326134768152555</v>
       </c>
     </row>
     <row r="27">
@@ -737,10 +737,10 @@
         <v>0.4856996954374863</v>
       </c>
       <c r="C27">
-        <v>0.4351873076480356</v>
+        <v>0.4361911910186426</v>
       </c>
       <c r="D27">
-        <v>0.529181383112171</v>
+        <v>0.5302161287583528</v>
       </c>
     </row>
     <row r="28">
@@ -751,10 +751,10 @@
         <v>0.4831689003346941</v>
       </c>
       <c r="C28">
-        <v>0.4325624334494644</v>
+        <v>0.4335698383388157</v>
       </c>
       <c r="D28">
-        <v>0.5267496440776723</v>
+        <v>0.528035818947681</v>
       </c>
     </row>
     <row r="29">
@@ -765,10 +765,10 @@
         <v>0.4808840051122617</v>
       </c>
       <c r="C29">
-        <v>0.4304090039842269</v>
+        <v>0.431149493616141</v>
       </c>
       <c r="D29">
-        <v>0.5242591387899178</v>
+        <v>0.5256102068656964</v>
       </c>
     </row>
     <row r="30">
@@ -779,10 +779,10 @@
         <v>0.4788201648134953</v>
       </c>
       <c r="C30">
-        <v>0.4282289746902677</v>
+        <v>0.4289546438603017</v>
       </c>
       <c r="D30">
-        <v>0.5219953152604447</v>
+        <v>0.5231445996552525</v>
       </c>
     </row>
     <row r="31">
@@ -793,10 +793,10 @@
         <v>0.4769552121899073</v>
       </c>
       <c r="C31">
-        <v>0.4262209982466434</v>
+        <v>0.4269719063580684</v>
       </c>
       <c r="D31">
-        <v>0.5203813438683279</v>
+        <v>0.5213287972853136</v>
       </c>
     </row>
     <row r="32">
@@ -807,10 +807,10 @@
         <v>0.4723657978128252</v>
       </c>
       <c r="C32">
-        <v>0.4219085655055747</v>
+        <v>0.4219043152845512</v>
       </c>
       <c r="D32">
-        <v>0.5174292335712094</v>
+        <v>0.5168468522990183</v>
       </c>
     </row>
     <row r="33">
@@ -821,10 +821,10 @@
         <v>0.4672023160988186</v>
       </c>
       <c r="C33">
-        <v>0.4178916738545364</v>
+        <v>0.4159431785730546</v>
       </c>
       <c r="D33">
-        <v>0.5120776106772739</v>
+        <v>0.512201145119209</v>
       </c>
     </row>
     <row r="34">
@@ -835,10 +835,10 @@
         <v>0.466442947580042</v>
       </c>
       <c r="C34">
-        <v>0.4173191932627492</v>
+        <v>0.4152095396326018</v>
       </c>
       <c r="D34">
-        <v>0.5114379307658332</v>
+        <v>0.5114757846556557</v>
       </c>
     </row>
     <row r="35">
@@ -849,10 +849,10 @@
         <v>0.465755005313394</v>
       </c>
       <c r="C35">
-        <v>0.4168056212775185</v>
+        <v>0.4145690827668099</v>
       </c>
       <c r="D35">
-        <v>0.5108728321806731</v>
+        <v>0.5106911068106462</v>
       </c>
     </row>
     <row r="36">
@@ -863,10 +863,10 @@
         <v>0.4651316813518031</v>
       </c>
       <c r="C36">
-        <v>0.416152157534141</v>
+        <v>0.413990544795924</v>
       </c>
       <c r="D36">
-        <v>0.51036323973121</v>
+        <v>0.5100275917815962</v>
       </c>
     </row>
     <row r="37">
@@ -877,10 +877,10 @@
         <v>0.4618456143566102</v>
       </c>
       <c r="C37">
-        <v>0.411431955003935</v>
+        <v>0.410696331960496</v>
       </c>
       <c r="D37">
-        <v>0.5081584745357152</v>
+        <v>0.5067050919967161</v>
       </c>
     </row>
     <row r="38">
@@ -891,10 +891,10 @@
         <v>0.4609499133669011</v>
       </c>
       <c r="C38">
-        <v>0.4100682706564203</v>
+        <v>0.409717577510233</v>
       </c>
       <c r="D38">
-        <v>0.507312761348687</v>
+        <v>0.5057404340940624</v>
       </c>
     </row>
     <row r="39">
@@ -905,10 +905,10 @@
         <v>0.4591280430709042</v>
       </c>
       <c r="C39">
-        <v>0.4075104179754485</v>
+        <v>0.4071357892940921</v>
       </c>
       <c r="D39">
-        <v>0.5057538301163618</v>
+        <v>0.5037252381921539</v>
       </c>
     </row>
   </sheetData>
